--- a/data/pca/factorExposure/factorExposure_2010-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-13.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01409118941070607</v>
+        <v>-0.017014630562961</v>
       </c>
       <c r="C2">
-        <v>-0.0001587625240101788</v>
+        <v>0.0009656669000436701</v>
       </c>
       <c r="D2">
-        <v>0.009269706433499848</v>
+        <v>0.008585035863847058</v>
       </c>
       <c r="E2">
-        <v>0.00958989064707993</v>
+        <v>0.0001741683451729301</v>
       </c>
       <c r="F2">
-        <v>0.01771931183243311</v>
+        <v>-0.01051389601536209</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1185523465495462</v>
+        <v>-0.09303357715305827</v>
       </c>
       <c r="C4">
-        <v>0.07100551529858333</v>
+        <v>0.0162510434817141</v>
       </c>
       <c r="D4">
-        <v>0.001446431786519595</v>
+        <v>0.08413345202517783</v>
       </c>
       <c r="E4">
-        <v>-0.006106132759766613</v>
+        <v>-0.03059679608617904</v>
       </c>
       <c r="F4">
-        <v>0.004402580654798853</v>
+        <v>0.03214963832703358</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1217528588479383</v>
+        <v>-0.1538844356073064</v>
       </c>
       <c r="C6">
-        <v>0.006740269285507561</v>
+        <v>0.02449235411774697</v>
       </c>
       <c r="D6">
-        <v>0.01253479625344944</v>
+        <v>-0.02217100009854471</v>
       </c>
       <c r="E6">
-        <v>0.02981574559144351</v>
+        <v>-0.008303697064217089</v>
       </c>
       <c r="F6">
-        <v>-0.05862750337836673</v>
+        <v>0.04426327407520533</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06913769275277255</v>
+        <v>-0.05933332003038558</v>
       </c>
       <c r="C7">
-        <v>0.06988740365502029</v>
+        <v>-0.0007826290489052906</v>
       </c>
       <c r="D7">
-        <v>0.02987909617797698</v>
+        <v>0.05222589807844403</v>
       </c>
       <c r="E7">
-        <v>0.02304543428843327</v>
+        <v>-0.01500592481213708</v>
       </c>
       <c r="F7">
-        <v>0.03529149833578205</v>
+        <v>0.05169182023197805</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05440692628313166</v>
+        <v>-0.05813140522857833</v>
       </c>
       <c r="C8">
-        <v>0.03670626140388621</v>
+        <v>-0.01315174136472495</v>
       </c>
       <c r="D8">
-        <v>0.02002150868549609</v>
+        <v>0.03224293901079922</v>
       </c>
       <c r="E8">
-        <v>-0.007909712366877885</v>
+        <v>-0.01554782595585769</v>
       </c>
       <c r="F8">
-        <v>-0.02390115391616923</v>
+        <v>-0.02856658479409172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08215674346246381</v>
+        <v>-0.07087169236804089</v>
       </c>
       <c r="C9">
-        <v>0.05674768217613595</v>
+        <v>0.01221067789432261</v>
       </c>
       <c r="D9">
-        <v>0.008605744306974653</v>
+        <v>0.08396182744923275</v>
       </c>
       <c r="E9">
-        <v>-0.01759788159666692</v>
+        <v>-0.02503327123628508</v>
       </c>
       <c r="F9">
-        <v>0.008238204204035069</v>
+        <v>0.05456748450973691</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.109399207001701</v>
+        <v>-0.09503828923001166</v>
       </c>
       <c r="C10">
-        <v>-0.1748038126028794</v>
+        <v>0.01774547455744429</v>
       </c>
       <c r="D10">
-        <v>0.01547899949370685</v>
+        <v>-0.171332709356787</v>
       </c>
       <c r="E10">
-        <v>0.01250065861764855</v>
+        <v>0.03951271540483858</v>
       </c>
       <c r="F10">
-        <v>0.03963473572438848</v>
+        <v>-0.05270872782102737</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07646505704723514</v>
+        <v>-0.08733949883265429</v>
       </c>
       <c r="C11">
-        <v>0.0555028311449629</v>
+        <v>0.01160546363669915</v>
       </c>
       <c r="D11">
-        <v>0.03205613144714991</v>
+        <v>0.1146439082610549</v>
       </c>
       <c r="E11">
-        <v>-0.01709474656600986</v>
+        <v>-0.04927680559717555</v>
       </c>
       <c r="F11">
-        <v>-0.010665911058012</v>
+        <v>0.02048779188506711</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07803537634217009</v>
+        <v>-0.09183287309641824</v>
       </c>
       <c r="C12">
-        <v>0.08180766330318608</v>
+        <v>0.009197501051322565</v>
       </c>
       <c r="D12">
-        <v>0.03772995152099333</v>
+        <v>0.1237177458724767</v>
       </c>
       <c r="E12">
-        <v>-0.06213547252443919</v>
+        <v>-0.04825285508626427</v>
       </c>
       <c r="F12">
-        <v>0.02388856304574239</v>
+        <v>0.02113671923334179</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03069962495067755</v>
+        <v>-0.04287606875275681</v>
       </c>
       <c r="C13">
-        <v>0.02780912890541951</v>
+        <v>0.003791809797143054</v>
       </c>
       <c r="D13">
-        <v>0.0004725564347664123</v>
+        <v>0.04722575216287109</v>
       </c>
       <c r="E13">
-        <v>0.01984308036974696</v>
+        <v>0.01122258893666428</v>
       </c>
       <c r="F13">
-        <v>0.0146740509481628</v>
+        <v>0.01387456478915871</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03903732859459695</v>
+        <v>-0.02228779667939305</v>
       </c>
       <c r="C14">
-        <v>0.02363375702904343</v>
+        <v>0.01428198258042631</v>
       </c>
       <c r="D14">
-        <v>-0.002383353737028024</v>
+        <v>0.03225393213234676</v>
       </c>
       <c r="E14">
-        <v>-0.02327165003585736</v>
+        <v>-0.01903652690719045</v>
       </c>
       <c r="F14">
-        <v>0.002032805166278693</v>
+        <v>0.01982161225099081</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01654782254405558</v>
+        <v>-0.03150812443068392</v>
       </c>
       <c r="C15">
-        <v>0.01198288982904006</v>
+        <v>0.005461484582178843</v>
       </c>
       <c r="D15">
-        <v>-0.0002280032377793368</v>
+        <v>0.04500553085856934</v>
       </c>
       <c r="E15">
-        <v>0.04226925799871605</v>
+        <v>-0.008846602278388611</v>
       </c>
       <c r="F15">
-        <v>0.01706965407047092</v>
+        <v>0.03042579194398436</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08430968955096446</v>
+        <v>-0.0732522805648827</v>
       </c>
       <c r="C16">
-        <v>0.06631309753010181</v>
+        <v>0.003067497624030927</v>
       </c>
       <c r="D16">
-        <v>0.04128142843997383</v>
+        <v>0.117758104805723</v>
       </c>
       <c r="E16">
-        <v>-0.03912176672498739</v>
+        <v>-0.06350311231579915</v>
       </c>
       <c r="F16">
-        <v>-0.004572210314070537</v>
+        <v>0.02944029612207888</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02337409583486695</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003422383366755728</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01773745158624061</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.009447890159084437</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01797321978844969</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0492002853169113</v>
+        <v>-0.06086938646296689</v>
       </c>
       <c r="C20">
-        <v>0.03595100686689792</v>
+        <v>0.0007895504674690494</v>
       </c>
       <c r="D20">
-        <v>-0.02362116925677633</v>
+        <v>0.07564821153334775</v>
       </c>
       <c r="E20">
-        <v>0.02539803174386089</v>
+        <v>-0.05556936812849204</v>
       </c>
       <c r="F20">
-        <v>0.01033169457607992</v>
+        <v>0.02958274817709872</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02946734138661749</v>
+        <v>-0.03876358753003094</v>
       </c>
       <c r="C21">
-        <v>0.008844938686045951</v>
+        <v>0.006919414867236789</v>
       </c>
       <c r="D21">
-        <v>-0.0201332737606044</v>
+        <v>0.03819329569234042</v>
       </c>
       <c r="E21">
-        <v>-0.01220177016308402</v>
+        <v>0.007637053184344403</v>
       </c>
       <c r="F21">
-        <v>-0.01832652750702912</v>
+        <v>-0.0189623349068388</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03063365301273576</v>
+        <v>-0.04242526969638039</v>
       </c>
       <c r="C22">
-        <v>-0.003093275953297386</v>
+        <v>0.0004735000787370896</v>
       </c>
       <c r="D22">
-        <v>0.02036901781265251</v>
+        <v>0.002162291504856468</v>
       </c>
       <c r="E22">
-        <v>0.6046816944251968</v>
+        <v>-0.02933578746623336</v>
       </c>
       <c r="F22">
-        <v>0.1796407496640502</v>
+        <v>-0.009015506613020332</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03086811755566773</v>
+        <v>-0.04247917251079228</v>
       </c>
       <c r="C23">
-        <v>-0.002310772170753809</v>
+        <v>0.0004957789292503339</v>
       </c>
       <c r="D23">
-        <v>0.02162655180052579</v>
+        <v>0.002291123268484128</v>
       </c>
       <c r="E23">
-        <v>0.6081516508288648</v>
+        <v>-0.0296941471218556</v>
       </c>
       <c r="F23">
-        <v>0.1785928230446142</v>
+        <v>-0.008562634043751075</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08432100618690327</v>
+        <v>-0.07965791361658366</v>
       </c>
       <c r="C24">
-        <v>0.06669578562225931</v>
+        <v>0.003291003543985677</v>
       </c>
       <c r="D24">
-        <v>0.01948656411099511</v>
+        <v>0.1188408083139167</v>
       </c>
       <c r="E24">
-        <v>-0.03401307344230813</v>
+        <v>-0.05136727843967607</v>
       </c>
       <c r="F24">
-        <v>0.0001638759490149886</v>
+        <v>0.02259015099220735</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09026473500887701</v>
+        <v>-0.08461562636467246</v>
       </c>
       <c r="C25">
-        <v>0.06715481477812955</v>
+        <v>0.005435059863352176</v>
       </c>
       <c r="D25">
-        <v>0.03177639912509286</v>
+        <v>0.1067877720992635</v>
       </c>
       <c r="E25">
-        <v>-0.06566495848824612</v>
+        <v>-0.03456188419864586</v>
       </c>
       <c r="F25">
-        <v>0.01490567864292957</v>
+        <v>0.03004358793807575</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04119902167222739</v>
+        <v>-0.0545281381628827</v>
       </c>
       <c r="C26">
-        <v>-0.007205384137300735</v>
+        <v>0.01487960439843023</v>
       </c>
       <c r="D26">
-        <v>-0.01087566497821892</v>
+        <v>0.03802930597162417</v>
       </c>
       <c r="E26">
-        <v>0.01260750618420468</v>
+        <v>-0.02790393343814711</v>
       </c>
       <c r="F26">
-        <v>-0.01554224715774952</v>
+        <v>-0.01207539445833858</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1219548379907199</v>
+        <v>-0.1433794906883256</v>
       </c>
       <c r="C28">
-        <v>-0.3114905370737274</v>
+        <v>0.0160149570189298</v>
       </c>
       <c r="D28">
-        <v>0.06524397076700877</v>
+        <v>-0.2657254794352833</v>
       </c>
       <c r="E28">
-        <v>-0.02124324479463306</v>
+        <v>0.06918848998227434</v>
       </c>
       <c r="F28">
-        <v>-0.01598262481323965</v>
+        <v>0.02983902283422952</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03348192022503478</v>
+        <v>-0.02719252861832961</v>
       </c>
       <c r="C29">
-        <v>0.01914668186888526</v>
+        <v>0.00868942128428328</v>
       </c>
       <c r="D29">
-        <v>0.009834552194759979</v>
+        <v>0.03083527309492337</v>
       </c>
       <c r="E29">
-        <v>-0.03635024380012126</v>
+        <v>-0.01201905639305277</v>
       </c>
       <c r="F29">
-        <v>0.03863009898416093</v>
+        <v>-0.01167621958229432</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1038254866600353</v>
+        <v>-0.06279399780170049</v>
       </c>
       <c r="C30">
-        <v>0.09194647995349656</v>
+        <v>0.004540576499093599</v>
       </c>
       <c r="D30">
-        <v>0.04715913766328516</v>
+        <v>0.08619623651288107</v>
       </c>
       <c r="E30">
-        <v>-0.04390183239309681</v>
+        <v>-0.02512737847976846</v>
       </c>
       <c r="F30">
-        <v>-0.05137763952623012</v>
+        <v>0.1058464990915571</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03043749576899279</v>
+        <v>-0.04829181258707928</v>
       </c>
       <c r="C31">
-        <v>0.03447577642381715</v>
+        <v>0.01495810708884189</v>
       </c>
       <c r="D31">
-        <v>-0.005681032006245053</v>
+        <v>0.02822523609494806</v>
       </c>
       <c r="E31">
-        <v>0.002023159450698369</v>
+        <v>-0.02717545214671323</v>
       </c>
       <c r="F31">
-        <v>0.00725501550384484</v>
+        <v>-0.004526510680750469</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0577571267992068</v>
+        <v>-0.04772452741967907</v>
       </c>
       <c r="C32">
-        <v>0.01500856479646554</v>
+        <v>-0.0002271121905311179</v>
       </c>
       <c r="D32">
-        <v>-0.01520372239625754</v>
+        <v>0.0317081713467957</v>
       </c>
       <c r="E32">
-        <v>-0.06787649683762956</v>
+        <v>-0.02978661490170128</v>
       </c>
       <c r="F32">
-        <v>-0.07577116367991069</v>
+        <v>0.002270721917248046</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09262119742724047</v>
+        <v>-0.09004776503157837</v>
       </c>
       <c r="C33">
-        <v>0.07918532506520112</v>
+        <v>0.0087415838932316</v>
       </c>
       <c r="D33">
-        <v>0.06552471045975243</v>
+        <v>0.09456200897279948</v>
       </c>
       <c r="E33">
-        <v>-0.02446644251621631</v>
+        <v>-0.0474661326607043</v>
       </c>
       <c r="F33">
-        <v>0.00946448103795041</v>
+        <v>0.04200589817193944</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07174462443344519</v>
+        <v>-0.06731792368326651</v>
       </c>
       <c r="C34">
-        <v>0.05612534239698685</v>
+        <v>0.01180796943367519</v>
       </c>
       <c r="D34">
-        <v>0.02850542596033603</v>
+        <v>0.09932299929215464</v>
       </c>
       <c r="E34">
-        <v>-0.03413511533232309</v>
+        <v>-0.03584550755421471</v>
       </c>
       <c r="F34">
-        <v>0.008961605638631343</v>
+        <v>0.04009219598150662</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0100341553452851</v>
+        <v>-0.02430997546525215</v>
       </c>
       <c r="C35">
-        <v>0.01288194668200451</v>
+        <v>0.002414401127104779</v>
       </c>
       <c r="D35">
-        <v>0.007156892858160255</v>
+        <v>0.01201173919110866</v>
       </c>
       <c r="E35">
-        <v>0.0003966715443456083</v>
+        <v>-0.01136013351431679</v>
       </c>
       <c r="F35">
-        <v>0.01632681686328764</v>
+        <v>0.008923837249966426</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02709530382919047</v>
+        <v>-0.02433174207203304</v>
       </c>
       <c r="C36">
-        <v>0.01876260296207867</v>
+        <v>0.007193016648216567</v>
       </c>
       <c r="D36">
-        <v>0.006389387809775031</v>
+        <v>0.03742520865399366</v>
       </c>
       <c r="E36">
-        <v>0.007741111543289977</v>
+        <v>-0.01789320478154794</v>
       </c>
       <c r="F36">
-        <v>-0.005153255947939233</v>
+        <v>0.01258772903157684</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.00794337414798383</v>
+        <v>-0.001519795165290636</v>
       </c>
       <c r="C38">
-        <v>0.0129949284246236</v>
+        <v>0.0002386926507975724</v>
       </c>
       <c r="D38">
-        <v>0.003659295773761557</v>
+        <v>0.001195829483993022</v>
       </c>
       <c r="E38">
-        <v>0.01833420139229538</v>
+        <v>-0.001391884931841333</v>
       </c>
       <c r="F38">
-        <v>0.0332218387410978</v>
+        <v>-0.001063403769752126</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1209734031267064</v>
+        <v>-0.1080291181313469</v>
       </c>
       <c r="C39">
-        <v>0.1155525874220608</v>
+        <v>0.01684527230502159</v>
       </c>
       <c r="D39">
-        <v>0.06367197026439456</v>
+        <v>0.1544548586487375</v>
       </c>
       <c r="E39">
-        <v>-0.1411409241240378</v>
+        <v>-0.0617851544530061</v>
       </c>
       <c r="F39">
-        <v>0.006813446183510729</v>
+        <v>0.02710178054620205</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.006519890190595437</v>
+        <v>-0.03717060821713696</v>
       </c>
       <c r="C40">
-        <v>0.02839472823631758</v>
+        <v>0.007333647821342431</v>
       </c>
       <c r="D40">
-        <v>-0.02004559624626936</v>
+        <v>0.03135350762295538</v>
       </c>
       <c r="E40">
-        <v>0.06627817519693682</v>
+        <v>-0.003429414077184437</v>
       </c>
       <c r="F40">
-        <v>0.0405904073385371</v>
+        <v>-0.01288506624745167</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02615762849404137</v>
+        <v>-0.02635743309529538</v>
       </c>
       <c r="C41">
-        <v>0.002537443906252731</v>
+        <v>0.006611803866931208</v>
       </c>
       <c r="D41">
-        <v>-0.003424804738287848</v>
+        <v>0.0114182383206654</v>
       </c>
       <c r="E41">
-        <v>-0.00676183804488679</v>
+        <v>-0.01275244162779638</v>
       </c>
       <c r="F41">
-        <v>0.008283094036592607</v>
+        <v>-0.008584022516429153</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03678907920289275</v>
+        <v>-0.04068977533625182</v>
       </c>
       <c r="C43">
-        <v>0.006439979068111536</v>
+        <v>0.006773781754581151</v>
       </c>
       <c r="D43">
-        <v>0.02004523487769001</v>
+        <v>0.02124519857740431</v>
       </c>
       <c r="E43">
-        <v>-0.0009417472126496579</v>
+        <v>-0.02497746563365398</v>
       </c>
       <c r="F43">
-        <v>0.0009310903906634677</v>
+        <v>-0.01256105352438618</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1191182138522833</v>
+        <v>-0.07589042044057208</v>
       </c>
       <c r="C44">
-        <v>0.1343436448276118</v>
+        <v>0.02182767955542718</v>
       </c>
       <c r="D44">
-        <v>0.06230064382179655</v>
+        <v>0.09531387645230513</v>
       </c>
       <c r="E44">
-        <v>0.1006062555849823</v>
+        <v>-0.07555889422197928</v>
       </c>
       <c r="F44">
-        <v>0.1090000879398441</v>
+        <v>0.1878546506007745</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01844953006769917</v>
+        <v>-0.02212808236435599</v>
       </c>
       <c r="C46">
-        <v>-0.01620763859572846</v>
+        <v>0.003813880236963514</v>
       </c>
       <c r="D46">
-        <v>0.02356326717482477</v>
+        <v>0.01222086749273198</v>
       </c>
       <c r="E46">
-        <v>0.02401222753741961</v>
+        <v>-0.02377550011774057</v>
       </c>
       <c r="F46">
-        <v>0.02828566551611266</v>
+        <v>0.001019898457227081</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03709523751455938</v>
+        <v>-0.05197590295220943</v>
       </c>
       <c r="C47">
-        <v>0.01670504290187763</v>
+        <v>0.003299868764633569</v>
       </c>
       <c r="D47">
-        <v>-0.001557238353708267</v>
+        <v>0.01252711634660489</v>
       </c>
       <c r="E47">
-        <v>-0.006617700154770544</v>
+        <v>-0.02222189285610218</v>
       </c>
       <c r="F47">
-        <v>-0.0005755613755764746</v>
+        <v>-0.04490346248317425</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04346092843109534</v>
+        <v>-0.04751602073525927</v>
       </c>
       <c r="C48">
-        <v>0.01889580650893116</v>
+        <v>0.00274848306082826</v>
       </c>
       <c r="D48">
-        <v>0.004274050603573935</v>
+        <v>0.04881095893479994</v>
       </c>
       <c r="E48">
-        <v>-0.008959084498167624</v>
+        <v>0.004278293920335667</v>
       </c>
       <c r="F48">
-        <v>0.01816832150312588</v>
+        <v>0.01048134622169454</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2256223256282057</v>
+        <v>-0.2027906574677518</v>
       </c>
       <c r="C49">
-        <v>-0.00514942759376105</v>
+        <v>0.01774115853049485</v>
       </c>
       <c r="D49">
-        <v>-0.05168953323255891</v>
+        <v>-0.01089283170259089</v>
       </c>
       <c r="E49">
-        <v>-0.02731567946790029</v>
+        <v>-0.03313092805287806</v>
       </c>
       <c r="F49">
-        <v>0.04934994306915495</v>
+        <v>0.03210952927210039</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03811513434774266</v>
+        <v>-0.04819346424477992</v>
       </c>
       <c r="C50">
-        <v>0.02356631958977904</v>
+        <v>0.01105268187030997</v>
       </c>
       <c r="D50">
-        <v>-0.009979265544886099</v>
+        <v>0.02671912151932983</v>
       </c>
       <c r="E50">
-        <v>-0.01065329389337779</v>
+        <v>-0.02972361128251263</v>
       </c>
       <c r="F50">
-        <v>0.003824968696061195</v>
+        <v>0.008842498605324342</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01331815553922976</v>
+        <v>-0.002436428267948105</v>
       </c>
       <c r="C51">
-        <v>-0.01815113289876467</v>
+        <v>0.0006426961075691698</v>
       </c>
       <c r="D51">
-        <v>0.01978564630285757</v>
+        <v>-0.002878280616247769</v>
       </c>
       <c r="E51">
-        <v>0.007494557546942194</v>
+        <v>0.0004347547972461514</v>
       </c>
       <c r="F51">
-        <v>0.01202477953253409</v>
+        <v>0.00548902121216607</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1028925306305875</v>
+        <v>-0.1447088265160135</v>
       </c>
       <c r="C52">
-        <v>0.08231226325684791</v>
+        <v>0.01368147631613761</v>
       </c>
       <c r="D52">
-        <v>-0.0100788899727231</v>
+        <v>0.05173641578727715</v>
       </c>
       <c r="E52">
-        <v>-0.01656497720023898</v>
+        <v>-0.02395685913287868</v>
       </c>
       <c r="F52">
-        <v>0.01176522634680832</v>
+        <v>0.03205453818781917</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1617180054185901</v>
+        <v>-0.1740729091145424</v>
       </c>
       <c r="C53">
-        <v>0.04317557222230556</v>
+        <v>0.01643276126215694</v>
       </c>
       <c r="D53">
-        <v>-0.008400365893160755</v>
+        <v>0.01186473444756914</v>
       </c>
       <c r="E53">
-        <v>0.01666855771106881</v>
+        <v>-0.03525348708864957</v>
       </c>
       <c r="F53">
-        <v>0.03310511762368343</v>
+        <v>0.06356902975035728</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05131718740727224</v>
+        <v>-0.02121991076166852</v>
       </c>
       <c r="C54">
-        <v>0.04928263536831357</v>
+        <v>0.01235706714801561</v>
       </c>
       <c r="D54">
-        <v>-0.00817238343208765</v>
+        <v>0.034045515723744</v>
       </c>
       <c r="E54">
-        <v>0.02063413625870942</v>
+        <v>-0.01590186022078463</v>
       </c>
       <c r="F54">
-        <v>0.006548298633953913</v>
+        <v>-0.005258992652396314</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08627414378278875</v>
+        <v>-0.1142241207685705</v>
       </c>
       <c r="C55">
-        <v>0.04302815244227826</v>
+        <v>0.01543375599775908</v>
       </c>
       <c r="D55">
-        <v>0.05381534716169399</v>
+        <v>0.01073727231869152</v>
       </c>
       <c r="E55">
-        <v>-0.02631282713364534</v>
+        <v>-0.02997748769213924</v>
       </c>
       <c r="F55">
-        <v>0.01897536311257517</v>
+        <v>0.04332749980999316</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1562425605948301</v>
+        <v>-0.1779995640865192</v>
       </c>
       <c r="C56">
-        <v>0.05895909953620721</v>
+        <v>0.01400171344864066</v>
       </c>
       <c r="D56">
-        <v>0.01230325724181234</v>
+        <v>0.006651481990592222</v>
       </c>
       <c r="E56">
-        <v>-0.01348501570266311</v>
+        <v>-0.03958369449245454</v>
       </c>
       <c r="F56">
-        <v>0.06271202618247826</v>
+        <v>0.03937703831274377</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04974800403415523</v>
+        <v>-0.04641551458866142</v>
       </c>
       <c r="C58">
-        <v>0.02011341979871526</v>
+        <v>0.001561212243286395</v>
       </c>
       <c r="D58">
-        <v>-0.01642748841837614</v>
+        <v>0.06692078408725312</v>
       </c>
       <c r="E58">
-        <v>0.04958004062225732</v>
+        <v>-0.0238772406457508</v>
       </c>
       <c r="F58">
-        <v>0.02372139507500441</v>
+        <v>-0.04321005100631372</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1825219820605428</v>
+        <v>-0.1725562664614223</v>
       </c>
       <c r="C59">
-        <v>-0.2362196957789789</v>
+        <v>0.01703024639861193</v>
       </c>
       <c r="D59">
-        <v>0.07517333827055565</v>
+        <v>-0.2234713074322556</v>
       </c>
       <c r="E59">
-        <v>-0.03574874884527773</v>
+        <v>0.04847862481059238</v>
       </c>
       <c r="F59">
-        <v>0.007406212098483327</v>
+        <v>-0.03123573321641362</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2638077719376967</v>
+        <v>-0.2364349703904197</v>
       </c>
       <c r="C60">
-        <v>0.1874177072557533</v>
+        <v>-0.003896873892658594</v>
       </c>
       <c r="D60">
-        <v>-0.08223174964850509</v>
+        <v>0.04705924773453878</v>
       </c>
       <c r="E60">
-        <v>-0.08345467069705226</v>
+        <v>-0.00814902557097261</v>
       </c>
       <c r="F60">
-        <v>0.1679873810005507</v>
+        <v>-0.03132593115737733</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1097415573181428</v>
+        <v>-0.08285471099226464</v>
       </c>
       <c r="C61">
-        <v>0.06588359819708249</v>
+        <v>0.01306264675748933</v>
       </c>
       <c r="D61">
-        <v>0.04917092899532154</v>
+        <v>0.1143541721220773</v>
       </c>
       <c r="E61">
-        <v>-0.0839154586698153</v>
+        <v>-0.0425219402672707</v>
       </c>
       <c r="F61">
-        <v>0.02692250111210726</v>
+        <v>0.01489713597565567</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1561640397828481</v>
+        <v>-0.1704935804704323</v>
       </c>
       <c r="C62">
-        <v>0.05014859016128731</v>
+        <v>0.01779939008328129</v>
       </c>
       <c r="D62">
-        <v>0.01345514264595881</v>
+        <v>0.0107851439121044</v>
       </c>
       <c r="E62">
-        <v>0.0003520072467216187</v>
+        <v>-0.03701719011611861</v>
       </c>
       <c r="F62">
-        <v>0.0489233851518631</v>
+        <v>0.02084829082889803</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03879448968819649</v>
+        <v>-0.04263117110958886</v>
       </c>
       <c r="C63">
-        <v>-0.0006341417342367031</v>
+        <v>0.003047505009600823</v>
       </c>
       <c r="D63">
-        <v>0.007301111474559407</v>
+        <v>0.05155194091743157</v>
       </c>
       <c r="E63">
-        <v>-0.001845854459697791</v>
+        <v>-0.02306474325285042</v>
       </c>
       <c r="F63">
-        <v>-0.04271138141266923</v>
+        <v>0.006542720505320013</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0950421556615199</v>
+        <v>-0.1119544945650352</v>
       </c>
       <c r="C64">
-        <v>0.03099137603974699</v>
+        <v>0.01118419841964327</v>
       </c>
       <c r="D64">
-        <v>-0.004068369979231761</v>
+        <v>0.04329347251527112</v>
       </c>
       <c r="E64">
-        <v>-0.009905872490639903</v>
+        <v>-0.0210289528294277</v>
       </c>
       <c r="F64">
-        <v>0.06589287302329307</v>
+        <v>0.02475921387848247</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.112385543348248</v>
+        <v>-0.1454129441634409</v>
       </c>
       <c r="C65">
-        <v>-0.0003568743162533206</v>
+        <v>0.03114354490974285</v>
       </c>
       <c r="D65">
-        <v>0.005279527631970801</v>
+        <v>-0.04395573145449291</v>
       </c>
       <c r="E65">
-        <v>-0.00566761236984095</v>
+        <v>0.001054413233227522</v>
       </c>
       <c r="F65">
-        <v>-0.06384644126830961</v>
+        <v>0.04627612802819509</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1363936763862033</v>
+        <v>-0.1291603484344899</v>
       </c>
       <c r="C66">
-        <v>0.119762220264447</v>
+        <v>0.01464768866269017</v>
       </c>
       <c r="D66">
-        <v>0.06056598160751932</v>
+        <v>0.1424813530375109</v>
       </c>
       <c r="E66">
-        <v>-0.1140439881054348</v>
+        <v>-0.06872465621802926</v>
       </c>
       <c r="F66">
-        <v>0.01534729187629946</v>
+        <v>0.03181065774813568</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06497396308470116</v>
+        <v>-0.06208080147697332</v>
       </c>
       <c r="C67">
-        <v>0.05465059792751103</v>
+        <v>0.003285088762187128</v>
       </c>
       <c r="D67">
-        <v>0.07676972341082004</v>
+        <v>0.05329546196926882</v>
       </c>
       <c r="E67">
-        <v>0.01750816069734952</v>
+        <v>-0.01766376207347917</v>
       </c>
       <c r="F67">
-        <v>0.02083842037223272</v>
+        <v>-0.04118735368748262</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1057276336640792</v>
+        <v>-0.1166756539836625</v>
       </c>
       <c r="C68">
-        <v>-0.263896436270259</v>
+        <v>0.02678951107726935</v>
       </c>
       <c r="D68">
-        <v>0.04905608315094162</v>
+        <v>-0.2619162897779781</v>
       </c>
       <c r="E68">
-        <v>-0.03052382803381638</v>
+        <v>0.08734958274264358</v>
       </c>
       <c r="F68">
-        <v>-0.03355220950129405</v>
+        <v>0.03310392155425885</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03259674689164263</v>
+        <v>-0.03945549567650573</v>
       </c>
       <c r="C69">
-        <v>-0.006220932595639584</v>
+        <v>0.0009339718077613345</v>
       </c>
       <c r="D69">
-        <v>0.03694458955310705</v>
+        <v>0.009205195968083951</v>
       </c>
       <c r="E69">
-        <v>0.002975705531275429</v>
+        <v>-0.02410369040176313</v>
       </c>
       <c r="F69">
-        <v>0.01627539751830093</v>
+        <v>-0.01182307003018685</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03367390320901372</v>
+        <v>-0.06255707421237011</v>
       </c>
       <c r="C70">
-        <v>0.0105406727360579</v>
+        <v>-0.02838033052224892</v>
       </c>
       <c r="D70">
-        <v>0.03634619387126466</v>
+        <v>0.02943037614127511</v>
       </c>
       <c r="E70">
-        <v>-0.04228293580950088</v>
+        <v>0.05028724272448647</v>
       </c>
       <c r="F70">
-        <v>0.03725035863744269</v>
+        <v>-0.2780832542093046</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1235892177654864</v>
+        <v>-0.1359893847121535</v>
       </c>
       <c r="C71">
-        <v>-0.2771821661158716</v>
+        <v>0.03104550945012413</v>
       </c>
       <c r="D71">
-        <v>0.06134189000045871</v>
+        <v>-0.2776502017744414</v>
       </c>
       <c r="E71">
-        <v>-0.02456061233877028</v>
+        <v>0.09586786128010044</v>
       </c>
       <c r="F71">
-        <v>0.01197605598759138</v>
+        <v>0.03918385236456068</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1453134810357477</v>
+        <v>-0.1408769566236462</v>
       </c>
       <c r="C72">
-        <v>0.01481446686694268</v>
+        <v>0.02461746646068868</v>
       </c>
       <c r="D72">
-        <v>-0.006158032999522516</v>
+        <v>0.004780914386735062</v>
       </c>
       <c r="E72">
-        <v>0.0104363260687428</v>
+        <v>-0.04505795998350914</v>
       </c>
       <c r="F72">
-        <v>-0.01092900509579339</v>
+        <v>0.02324917483057303</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2244540415978845</v>
+        <v>-0.2034494978086158</v>
       </c>
       <c r="C73">
-        <v>0.04830982311042219</v>
+        <v>0.01180885003507662</v>
       </c>
       <c r="D73">
-        <v>0.04690438667409538</v>
+        <v>0.01611698208381862</v>
       </c>
       <c r="E73">
-        <v>-0.06439093686837721</v>
+        <v>-0.06258798586743292</v>
       </c>
       <c r="F73">
-        <v>0.1272872306146036</v>
+        <v>0.03272394228592606</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1192201916997385</v>
+        <v>-0.09480746910818691</v>
       </c>
       <c r="C74">
-        <v>0.06708582414469175</v>
+        <v>0.01213810664662504</v>
       </c>
       <c r="D74">
-        <v>0.025537816593383</v>
+        <v>0.02033634242484724</v>
       </c>
       <c r="E74">
-        <v>0.00781562771359556</v>
+        <v>-0.04796839165526189</v>
       </c>
       <c r="F74">
-        <v>0.02433006362851392</v>
+        <v>0.04670799510328778</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1171568415157804</v>
+        <v>-0.1298801979179947</v>
       </c>
       <c r="C75">
-        <v>0.0589305675774681</v>
+        <v>0.02642471193969484</v>
       </c>
       <c r="D75">
-        <v>-0.002228048871356409</v>
+        <v>0.03390326413446863</v>
       </c>
       <c r="E75">
-        <v>0.007082904811200347</v>
+        <v>-0.06068973683950996</v>
       </c>
       <c r="F75">
-        <v>0.0022404860503578</v>
+        <v>0.01232503276717408</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02177773080573651</v>
+        <v>-0.00380787866832838</v>
       </c>
       <c r="C76">
-        <v>-0.01278016891166092</v>
+        <v>0.0009054661622253597</v>
       </c>
       <c r="D76">
-        <v>0.01581129989930566</v>
+        <v>-0.002490890917853971</v>
       </c>
       <c r="E76">
-        <v>-0.01167731404774032</v>
+        <v>-0.0006494677064949086</v>
       </c>
       <c r="F76">
-        <v>0.01862953068232411</v>
+        <v>0.004129993732748839</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0651707411048236</v>
+        <v>-0.07776607443973305</v>
       </c>
       <c r="C77">
-        <v>0.0446040017053001</v>
+        <v>0.009147498286155657</v>
       </c>
       <c r="D77">
-        <v>-0.02425457280383312</v>
+        <v>0.1159365692550204</v>
       </c>
       <c r="E77">
-        <v>0.003668244921875207</v>
+        <v>-0.03783528061836657</v>
       </c>
       <c r="F77">
-        <v>0.05025257372885533</v>
+        <v>0.03290118330871094</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1178902758093499</v>
+        <v>-0.104594311370422</v>
       </c>
       <c r="C78">
-        <v>0.06764408098488872</v>
+        <v>0.0409065738473652</v>
       </c>
       <c r="D78">
-        <v>0.06941383428643524</v>
+        <v>0.1145219789772246</v>
       </c>
       <c r="E78">
-        <v>0.3294642188956539</v>
+        <v>-0.07997122437114036</v>
       </c>
       <c r="F78">
-        <v>-0.2774243507846609</v>
+        <v>0.07712281704437311</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1361173251357161</v>
+        <v>-0.1642665578845156</v>
       </c>
       <c r="C79">
-        <v>0.05190995635640324</v>
+        <v>0.02049797330930207</v>
       </c>
       <c r="D79">
-        <v>-0.02327360346385324</v>
+        <v>0.01942217856911764</v>
       </c>
       <c r="E79">
-        <v>-0.005788688304968403</v>
+        <v>-0.04952745558349264</v>
       </c>
       <c r="F79">
-        <v>0.02643439214451864</v>
+        <v>0.003832123441211837</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07226013665476377</v>
+        <v>-0.08036250335946597</v>
       </c>
       <c r="C80">
-        <v>0.07166477003975145</v>
+        <v>-0.0008669718916012577</v>
       </c>
       <c r="D80">
-        <v>0.07092385506492623</v>
+        <v>0.05896093727909295</v>
       </c>
       <c r="E80">
-        <v>-0.02674520326244703</v>
+        <v>-0.0368423904294304</v>
       </c>
       <c r="F80">
-        <v>0.02714309293753971</v>
+        <v>-0.01424627977108322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1401825090274455</v>
+        <v>-0.1234462192079226</v>
       </c>
       <c r="C81">
-        <v>0.07750493944717519</v>
+        <v>0.03033318315430814</v>
       </c>
       <c r="D81">
-        <v>0.003628587519105035</v>
+        <v>0.01844275549457355</v>
       </c>
       <c r="E81">
-        <v>0.003051584963299107</v>
+        <v>-0.05980651944951416</v>
       </c>
       <c r="F81">
-        <v>0.02328747445798874</v>
+        <v>0.004998575764206294</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1594007916768562</v>
+        <v>-0.1645513287753585</v>
       </c>
       <c r="C82">
-        <v>0.06165891034058167</v>
+        <v>0.02195155757668095</v>
       </c>
       <c r="D82">
-        <v>0.01399958314618141</v>
+        <v>0.01451156677358834</v>
       </c>
       <c r="E82">
-        <v>-0.03226285111648653</v>
+        <v>-0.03564840504504267</v>
       </c>
       <c r="F82">
-        <v>0.04154479224603112</v>
+        <v>0.06424606381090375</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08554627717940275</v>
+        <v>-0.06276387927912117</v>
       </c>
       <c r="C83">
-        <v>0.1006500776981874</v>
+        <v>0.003273478890800731</v>
       </c>
       <c r="D83">
-        <v>-0.01000660339074804</v>
+        <v>0.04971473440339143</v>
       </c>
       <c r="E83">
-        <v>0.03735095732608645</v>
+        <v>-0.004959665744619576</v>
       </c>
       <c r="F83">
-        <v>-0.01273781329541707</v>
+        <v>-0.04178244275985563</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06047483515391443</v>
+        <v>-0.05922339359796136</v>
       </c>
       <c r="C84">
-        <v>-0.03500163885475212</v>
+        <v>0.010861834619418</v>
       </c>
       <c r="D84">
-        <v>-0.003690583390072852</v>
+        <v>0.06451111015573244</v>
       </c>
       <c r="E84">
-        <v>-0.06542923795434993</v>
+        <v>-0.002968778725480376</v>
       </c>
       <c r="F84">
-        <v>0.04096294047138946</v>
+        <v>0.01087222761716578</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1246142460224507</v>
+        <v>-0.1391183965698534</v>
       </c>
       <c r="C85">
-        <v>0.0415774777408368</v>
+        <v>0.02610499000890179</v>
       </c>
       <c r="D85">
-        <v>-0.0006886458258458147</v>
+        <v>0.01494095228810862</v>
       </c>
       <c r="E85">
-        <v>-0.002997255200291815</v>
+        <v>-0.04145439360102694</v>
       </c>
       <c r="F85">
-        <v>0.04135673278844773</v>
+        <v>0.04499165436044696</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1573328284116154</v>
+        <v>-0.09513207689222554</v>
       </c>
       <c r="C86">
-        <v>-0.08275292351658221</v>
+        <v>-0.006572236610709002</v>
       </c>
       <c r="D86">
-        <v>-0.937450631076769</v>
+        <v>0.02391306421318762</v>
       </c>
       <c r="E86">
-        <v>0.02002518509400649</v>
+        <v>-0.1513252158070102</v>
       </c>
       <c r="F86">
-        <v>-0.06752939907102963</v>
+        <v>-0.8654813755350463</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1245341497650227</v>
+        <v>-0.09623003560556977</v>
       </c>
       <c r="C87">
-        <v>0.1110310361755024</v>
+        <v>0.02223669701131436</v>
       </c>
       <c r="D87">
-        <v>-0.0101181452998987</v>
+        <v>0.08905894217366843</v>
       </c>
       <c r="E87">
-        <v>-0.002891907582211512</v>
+        <v>0.05370968290887789</v>
       </c>
       <c r="F87">
-        <v>0.04236588469442231</v>
+        <v>0.08344947949816552</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05250060571823981</v>
+        <v>-0.06095990740506986</v>
       </c>
       <c r="C88">
-        <v>0.03821700051812413</v>
+        <v>0.002811845958692025</v>
       </c>
       <c r="D88">
-        <v>0.02350072737368112</v>
+        <v>0.05362947554736664</v>
       </c>
       <c r="E88">
-        <v>-0.05671574819296391</v>
+        <v>-0.02807465540351144</v>
       </c>
       <c r="F88">
-        <v>0.005829789763699577</v>
+        <v>0.007693570972294473</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.174475007215053</v>
+        <v>-0.1362943224479465</v>
       </c>
       <c r="C89">
-        <v>-0.360161918653872</v>
+        <v>0.009397356226855932</v>
       </c>
       <c r="D89">
-        <v>0.07447856266273724</v>
+        <v>-0.2557373534410993</v>
       </c>
       <c r="E89">
-        <v>0.05117329346576107</v>
+        <v>0.09192090739371538</v>
       </c>
       <c r="F89">
-        <v>0.01724107308901113</v>
+        <v>0.01951629105477946</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1343805728768329</v>
+        <v>-0.1470837481340564</v>
       </c>
       <c r="C90">
-        <v>-0.2720669238551736</v>
+        <v>0.02681077469650709</v>
       </c>
       <c r="D90">
-        <v>0.04935991704611926</v>
+        <v>-0.2660385420540855</v>
       </c>
       <c r="E90">
-        <v>-0.0411638311883077</v>
+        <v>0.1083971030998015</v>
       </c>
       <c r="F90">
-        <v>0.01339987919168008</v>
+        <v>0.02266948874325203</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08312586052758249</v>
+        <v>-0.1191514994003166</v>
       </c>
       <c r="C91">
-        <v>0.04171487616836541</v>
+        <v>0.01679341775575279</v>
       </c>
       <c r="D91">
-        <v>-0.01845530157321268</v>
+        <v>-0.00843440995257028</v>
       </c>
       <c r="E91">
-        <v>-0.003320424706686817</v>
+        <v>-0.05708645124708387</v>
       </c>
       <c r="F91">
-        <v>0.02887465973240495</v>
+        <v>-0.01887394874423996</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1483966624839515</v>
+        <v>-0.1502706199474044</v>
       </c>
       <c r="C92">
-        <v>-0.3186810393320459</v>
+        <v>0.0185556652756947</v>
       </c>
       <c r="D92">
-        <v>0.06398653930392492</v>
+        <v>-0.2959760637809222</v>
       </c>
       <c r="E92">
-        <v>0.02430191463795144</v>
+        <v>0.1046707728618424</v>
       </c>
       <c r="F92">
-        <v>-0.002103582806534614</v>
+        <v>0.01783400302818147</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1368128407245198</v>
+        <v>-0.1516333910569735</v>
       </c>
       <c r="C93">
-        <v>-0.3218522776144717</v>
+        <v>0.02293762606695127</v>
       </c>
       <c r="D93">
-        <v>0.0372237842508125</v>
+        <v>-0.2672489851982361</v>
       </c>
       <c r="E93">
-        <v>-0.06949398339587654</v>
+        <v>0.07512223218975855</v>
       </c>
       <c r="F93">
-        <v>0.01555016453901298</v>
+        <v>0.017306365496978</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1393017858825095</v>
+        <v>-0.133183146087848</v>
       </c>
       <c r="C94">
-        <v>0.06535117993358307</v>
+        <v>0.02363930731277203</v>
       </c>
       <c r="D94">
-        <v>0.03648830262712018</v>
+        <v>0.04554362737954899</v>
       </c>
       <c r="E94">
-        <v>0.02104599603782249</v>
+        <v>-0.06089548133885851</v>
       </c>
       <c r="F94">
-        <v>0.02861045099129495</v>
+        <v>0.03049462849953649</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1109260206376004</v>
+        <v>-0.1250728946098162</v>
       </c>
       <c r="C95">
-        <v>0.02644854813141486</v>
+        <v>0.004891411254120713</v>
       </c>
       <c r="D95">
-        <v>0.02343298402450051</v>
+        <v>0.09069941203884999</v>
       </c>
       <c r="E95">
-        <v>0.04082677501469786</v>
+        <v>-0.04412644115730369</v>
       </c>
       <c r="F95">
-        <v>0.03908107529454045</v>
+        <v>-0.01455013599820907</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01325589463550043</v>
+        <v>-0.09853715345902246</v>
       </c>
       <c r="C96">
-        <v>-0.002085886592766377</v>
+        <v>-0.988849870185193</v>
       </c>
       <c r="D96">
-        <v>-0.001744898029618597</v>
+        <v>-0.03326061785075351</v>
       </c>
       <c r="E96">
-        <v>0.008110778209251998</v>
+        <v>-0.058266863761647</v>
       </c>
       <c r="F96">
-        <v>-0.00557148727987051</v>
+        <v>0.04682304577148392</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1764963237597351</v>
+        <v>-0.1884671279047341</v>
       </c>
       <c r="C97">
-        <v>0.07497082277641189</v>
+        <v>-0.01082196654301049</v>
       </c>
       <c r="D97">
-        <v>0.06611793753875822</v>
+        <v>-0.00702993217618624</v>
       </c>
       <c r="E97">
-        <v>0.1331213546558591</v>
+        <v>-0.01803116520510008</v>
       </c>
       <c r="F97">
-        <v>-0.852878622360184</v>
+        <v>-0.1689480807129883</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2465855087788552</v>
+        <v>-0.2051554537388088</v>
       </c>
       <c r="C98">
-        <v>0.03619441559248759</v>
+        <v>0.007094681081016526</v>
       </c>
       <c r="D98">
-        <v>-0.03609665406489113</v>
+        <v>0.01062375788572797</v>
       </c>
       <c r="E98">
-        <v>0.07726731429024952</v>
+        <v>0.0981667069738317</v>
       </c>
       <c r="F98">
-        <v>0.02528042285194289</v>
+        <v>-0.1111920816277738</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04281601550461299</v>
+        <v>-0.05595534665101537</v>
       </c>
       <c r="C99">
-        <v>-0.006956780063959567</v>
+        <v>-0.004016632913075926</v>
       </c>
       <c r="D99">
-        <v>0.04308368747622605</v>
+        <v>0.03598167801089019</v>
       </c>
       <c r="E99">
-        <v>0.02586763141371155</v>
+        <v>-0.02672373834792403</v>
       </c>
       <c r="F99">
-        <v>0.01731968102346147</v>
+        <v>0.003585170825517143</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02915490702293923</v>
+        <v>-0.122733093595536</v>
       </c>
       <c r="C100">
-        <v>0.07972500225430323</v>
+        <v>-0.05161910501132685</v>
       </c>
       <c r="D100">
-        <v>0.108464740401575</v>
+        <v>0.3472543131452391</v>
       </c>
       <c r="E100">
-        <v>-0.05325274323677053</v>
+        <v>0.8941669064562161</v>
       </c>
       <c r="F100">
-        <v>-0.04309510736924671</v>
+        <v>-0.07302899541233153</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03311122768711423</v>
+        <v>-0.02712461780991965</v>
       </c>
       <c r="C101">
-        <v>0.0197060208913915</v>
+        <v>0.008696384648059614</v>
       </c>
       <c r="D101">
-        <v>0.01046658704018624</v>
+        <v>0.03054554776495258</v>
       </c>
       <c r="E101">
-        <v>-0.03707971395933439</v>
+        <v>-0.01152412924950156</v>
       </c>
       <c r="F101">
-        <v>0.03843667683284367</v>
+        <v>-0.01353252028768338</v>
       </c>
     </row>
     <row r="102" spans="1:6">
